--- a/assets/database.xlsx
+++ b/assets/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,49 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="44">
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>INSERT INTO user (username, password, nm_pengguna, level, status) VALUES</t>
-  </si>
-  <si>
-    <t>('ulya', 'ulya', 'ulya', 'wakasiswa', 'active'),</t>
-  </si>
-  <si>
-    <t>('guru', 'guru', 'guru', 'guru', 'active'),</t>
-  </si>
-  <si>
-    <t>('bagus', 'bagus', 'bagus', 'wakasiswa', 'active'),</t>
-  </si>
-  <si>
-    <t>('adi', 'adi123', 'adi', 'guru', 'active'),</t>
-  </si>
-  <si>
-    <t>('budi', 'budi123', 'budi', 'guru', 'active'),</t>
-  </si>
-  <si>
-    <t>('sita', 'sita123', 'sita', 'guru', 'active'),</t>
-  </si>
-  <si>
-    <t>('dina', 'dina123', 'dina', 'guru', 'active'),</t>
-  </si>
-  <si>
-    <t>('joni', 'joni123', 'joni', 'guru', 'active'),</t>
-  </si>
-  <si>
-    <t>('putra', 'putra123', 'putra', 'guru', 'active'),</t>
-  </si>
-  <si>
-    <t>('ana', 'ana123', 'ana', 'guru', 'active');</t>
-  </si>
-  <si>
-    <t>periode</t>
-  </si>
-  <si>
-    <t>INSERT INTO periode (nm_periode,status_periode) VALUES</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="102">
   <si>
     <t>jadwal siswa</t>
   </si>
@@ -152,6 +110,222 @@
   </si>
   <si>
     <t>KIMIA</t>
+  </si>
+  <si>
+    <t>PERIODE</t>
+  </si>
+  <si>
+    <t>GURU</t>
+  </si>
+  <si>
+    <t>SISWA</t>
+  </si>
+  <si>
+    <t>JADWAL</t>
+  </si>
+  <si>
+    <t>EKSTRA_SISWA</t>
+  </si>
+  <si>
+    <t>NILAI_MAPEL</t>
+  </si>
+  <si>
+    <t>NILAI_EKSTRA</t>
+  </si>
+  <si>
+    <t>SEMESTER GASAL 2020</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>id_mapel</t>
+  </si>
+  <si>
+    <t>id_periode</t>
+  </si>
+  <si>
+    <t>nm_mapel</t>
+  </si>
+  <si>
+    <t>status_periode</t>
+  </si>
+  <si>
+    <t>ulya</t>
+  </si>
+  <si>
+    <t>Jl. Merdeka No. 10</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>ahmad.png</t>
+  </si>
+  <si>
+    <t>guru</t>
+  </si>
+  <si>
+    <t>Jl. Kembang No. 21</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>siti.png</t>
+  </si>
+  <si>
+    <t>bagus</t>
+  </si>
+  <si>
+    <t>Jl. Mawar No. 3</t>
+  </si>
+  <si>
+    <t>budi.png</t>
+  </si>
+  <si>
+    <t>id_guru</t>
+  </si>
+  <si>
+    <t>nip</t>
+  </si>
+  <si>
+    <t>alamat_guru</t>
+  </si>
+  <si>
+    <t>jk_guru</t>
+  </si>
+  <si>
+    <t>tgl_lahir</t>
+  </si>
+  <si>
+    <t>no_hp</t>
+  </si>
+  <si>
+    <t>foto</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Jl. Kebon Jeruk No. 1</t>
+  </si>
+  <si>
+    <t>Bapak Ali</t>
+  </si>
+  <si>
+    <t>Aktif</t>
+  </si>
+  <si>
+    <t>Alya</t>
+  </si>
+  <si>
+    <t>Jl. Kebon Jeruk No. 2</t>
+  </si>
+  <si>
+    <t>Bapak Alya</t>
+  </si>
+  <si>
+    <t>id_siswa</t>
+  </si>
+  <si>
+    <t>nis</t>
+  </si>
+  <si>
+    <t>nm_siswa</t>
+  </si>
+  <si>
+    <t>id_kelas</t>
+  </si>
+  <si>
+    <t>alamat_siswa</t>
+  </si>
+  <si>
+    <t>jk_siswa</t>
+  </si>
+  <si>
+    <t>tgl_lahir_siswa</t>
+  </si>
+  <si>
+    <t>nm_wali</t>
+  </si>
+  <si>
+    <t>status_siswa</t>
+  </si>
+  <si>
+    <t>id_jadwal_siswa</t>
+  </si>
+  <si>
+    <t>hari</t>
+  </si>
+  <si>
+    <t>waktu_awal</t>
+  </si>
+  <si>
+    <t>waktu_akir</t>
+  </si>
+  <si>
+    <t>senin</t>
+  </si>
+  <si>
+    <t>Pramuka</t>
+  </si>
+  <si>
+    <t>Fajar</t>
+  </si>
+  <si>
+    <t>id_ekstra</t>
+  </si>
+  <si>
+    <t>nm_ekstra</t>
+  </si>
+  <si>
+    <t>penanggung_jawab</t>
+  </si>
+  <si>
+    <t>EKSRA</t>
+  </si>
+  <si>
+    <t>id_ekstra_siwa</t>
+  </si>
+  <si>
+    <t>UH1</t>
+  </si>
+  <si>
+    <t>id_nilai_mapel</t>
+  </si>
+  <si>
+    <t>id_jadwal</t>
+  </si>
+  <si>
+    <t>nilai</t>
+  </si>
+  <si>
+    <t>ket_nilai</t>
+  </si>
+  <si>
+    <t>UH2</t>
+  </si>
+  <si>
+    <t>UH3</t>
+  </si>
+  <si>
+    <t>UH4</t>
+  </si>
+  <si>
+    <t>UTS</t>
+  </si>
+  <si>
+    <t>UAS</t>
+  </si>
+  <si>
+    <t>id_nilai_ekstra</t>
+  </si>
+  <si>
+    <t>id_ekstra_siswa</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -175,7 +349,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,8 +362,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -223,11 +403,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -235,6 +452,52 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,85 +778,3768 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:BG184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AW1" sqref="AW1:BA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="I1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="R1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AC1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AR1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="11"/>
+      <c r="BC1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD1" s="13"/>
+      <c r="BE1" s="13"/>
+      <c r="BF1" s="13"/>
+      <c r="BG1" s="13"/>
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL2" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1111</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="12">
+        <v>29356</v>
+      </c>
+      <c r="O3" s="6">
+        <v>81234567890</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="6">
+        <v>1</v>
+      </c>
+      <c r="S3" s="6">
+        <v>101</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="U3" s="6">
+        <v>1</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" s="12">
+        <v>40193</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>81234567890</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI3" s="14">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="AJ3" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AL3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="7">
+        <v>75</v>
+      </c>
+      <c r="BA3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="17">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="17">
+        <v>1</v>
+      </c>
+      <c r="BF3" s="17">
+        <v>80</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="E4" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="6">
+        <v>2</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1112</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="12">
+        <v>30183</v>
+      </c>
+      <c r="O4" s="6">
+        <v>81234567891</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="6">
+        <v>2</v>
+      </c>
+      <c r="S4" s="6">
+        <v>102</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U4" s="6">
+        <v>1</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="X4" s="12">
+        <v>40226</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>81234567891</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI4" s="14">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="AJ4" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AS4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="7">
+        <v>2</v>
+      </c>
+      <c r="AX4" s="7">
+        <v>2</v>
+      </c>
+      <c r="AY4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="7">
+        <v>71</v>
+      </c>
+      <c r="BA4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC4" s="17">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="17">
+        <v>2</v>
+      </c>
+      <c r="BE4" s="17">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="17">
+        <v>85</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="E5" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="6">
+        <v>3</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1113</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="12">
+        <v>27475</v>
+      </c>
+      <c r="O5" s="6">
+        <v>81234567892</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AC5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI5" s="14">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="AJ5" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AR5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AS5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AU5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="7">
+        <v>3</v>
+      </c>
+      <c r="AX5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="7">
+        <v>2</v>
+      </c>
+      <c r="AZ5" s="7">
+        <v>87</v>
+      </c>
+      <c r="BA5" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AC6" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="AD6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI6" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AJ6" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="7">
+        <v>4</v>
+      </c>
+      <c r="AX6" s="7">
+        <v>2</v>
+      </c>
+      <c r="AY6" s="7">
+        <v>2</v>
+      </c>
+      <c r="AZ6" s="7">
+        <v>78</v>
+      </c>
+      <c r="BA6" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AC7" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="AD7" s="5">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI7" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AJ7" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="AV7" s="15"/>
+      <c r="AW7" s="7">
+        <v>5</v>
+      </c>
+      <c r="AX7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="7">
+        <v>3</v>
+      </c>
+      <c r="AZ7" s="7">
+        <v>79</v>
+      </c>
+      <c r="BA7" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AC8" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="AD8" s="5">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI8" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AJ8" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="AV8" s="15"/>
+      <c r="AW8" s="7">
+        <v>6</v>
+      </c>
+      <c r="AX8" s="7">
+        <v>2</v>
+      </c>
+      <c r="AY8" s="7">
+        <v>3</v>
+      </c>
+      <c r="AZ8" s="7">
+        <v>92</v>
+      </c>
+      <c r="BA8" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AC9" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="AD9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>3</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>3</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI9" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="AJ9" s="14">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AV9" s="15"/>
+      <c r="AW9" s="7">
+        <v>7</v>
+      </c>
+      <c r="AX9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="7">
+        <v>82</v>
+      </c>
+      <c r="BA9" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AC10" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="AD10" s="5">
+        <v>2</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>3</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>3</v>
+      </c>
+      <c r="AG10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI10" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="AJ10" s="14">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AV10" s="15"/>
+      <c r="AW10" s="7">
+        <v>8</v>
+      </c>
+      <c r="AX10" s="7">
+        <v>2</v>
+      </c>
+      <c r="AY10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ10" s="7">
+        <v>80</v>
+      </c>
+      <c r="BA10" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AC11" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="AD11" s="5">
+        <v>3</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>3</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>3</v>
+      </c>
+      <c r="AG11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI11" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="AJ11" s="14">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AV11" s="15"/>
+      <c r="AW11" s="7">
+        <v>9</v>
+      </c>
+      <c r="AX11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="7">
+        <v>2</v>
+      </c>
+      <c r="AZ11" s="7">
+        <v>85</v>
+      </c>
+      <c r="BA11" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AV12" s="15"/>
+      <c r="AW12" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="AX12" s="7">
+        <v>2</v>
+      </c>
+      <c r="AY12" s="7">
+        <v>2</v>
+      </c>
+      <c r="AZ12" s="7">
+        <v>80</v>
+      </c>
+      <c r="BA12" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AV13" s="15"/>
+      <c r="AW13" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="AX13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="7">
+        <v>3</v>
+      </c>
+      <c r="AZ13" s="7">
+        <v>85</v>
+      </c>
+      <c r="BA13" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AV14" s="15"/>
+      <c r="AW14" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="AX14" s="7">
+        <v>2</v>
+      </c>
+      <c r="AY14" s="7">
+        <v>3</v>
+      </c>
+      <c r="AZ14" s="7">
+        <v>92</v>
+      </c>
+      <c r="BA14" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AV15" s="15"/>
+      <c r="AW15" s="7">
         <v>13</v>
       </c>
+      <c r="AX15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ15" s="7">
+        <v>70</v>
+      </c>
+      <c r="BA15" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AV16" s="15"/>
+      <c r="AW16" s="7">
+        <v>14</v>
+      </c>
+      <c r="AX16" s="7">
+        <v>2</v>
+      </c>
+      <c r="AY16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ16" s="7">
+        <v>91</v>
+      </c>
+      <c r="BA16" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AV17" s="15"/>
+      <c r="AW17" s="7">
+        <v>15</v>
+      </c>
+      <c r="AX17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY17" s="7">
+        <v>2</v>
+      </c>
+      <c r="AZ17" s="7">
+        <v>87</v>
+      </c>
+      <c r="BA17" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AV18" s="15"/>
+      <c r="AW18" s="7">
+        <v>16</v>
+      </c>
+      <c r="AX18" s="7">
+        <v>2</v>
+      </c>
+      <c r="AY18" s="7">
+        <v>2</v>
+      </c>
+      <c r="AZ18" s="7">
+        <v>87</v>
+      </c>
+      <c r="BA18" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AV19" s="15"/>
+      <c r="AW19" s="7">
+        <v>17</v>
+      </c>
+      <c r="AX19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY19" s="7">
+        <v>3</v>
+      </c>
+      <c r="AZ19" s="7">
+        <v>76</v>
+      </c>
+      <c r="BA19" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AV20" s="15"/>
+      <c r="AW20" s="7">
+        <v>18</v>
+      </c>
+      <c r="AX20" s="7">
+        <v>2</v>
+      </c>
+      <c r="AY20" s="7">
+        <v>3</v>
+      </c>
+      <c r="AZ20" s="7">
+        <v>73</v>
+      </c>
+      <c r="BA20" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AV21" s="15"/>
+      <c r="AW21" s="7">
+        <v>19</v>
+      </c>
+      <c r="AX21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ21" s="7">
+        <v>93</v>
+      </c>
+      <c r="BA21" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AV22" s="15"/>
+      <c r="AW22" s="7">
+        <v>20</v>
+      </c>
+      <c r="AX22" s="7">
+        <v>2</v>
+      </c>
+      <c r="AY22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ22" s="7">
+        <v>75</v>
+      </c>
+      <c r="BA22" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AV23" s="15"/>
+      <c r="AW23" s="7">
+        <v>21</v>
+      </c>
+      <c r="AX23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY23" s="7">
+        <v>2</v>
+      </c>
+      <c r="AZ23" s="7">
+        <v>90</v>
+      </c>
+      <c r="BA23" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AV24" s="15"/>
+      <c r="AW24" s="7">
+        <v>22</v>
+      </c>
+      <c r="AX24" s="7">
+        <v>2</v>
+      </c>
+      <c r="AY24" s="7">
+        <v>2</v>
+      </c>
+      <c r="AZ24" s="7">
+        <v>75</v>
+      </c>
+      <c r="BA24" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AV25" s="15"/>
+      <c r="AW25" s="7">
+        <v>23</v>
+      </c>
+      <c r="AX25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY25" s="7">
+        <v>3</v>
+      </c>
+      <c r="AZ25" s="7">
+        <v>79</v>
+      </c>
+      <c r="BA25" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AV26" s="15"/>
+      <c r="AW26" s="7">
+        <v>24</v>
+      </c>
+      <c r="AX26" s="7">
+        <v>2</v>
+      </c>
+      <c r="AY26" s="7">
+        <v>3</v>
+      </c>
+      <c r="AZ26" s="7">
+        <v>94</v>
+      </c>
+      <c r="BA26" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AV27" s="15"/>
+      <c r="AW27" s="7">
+        <v>25</v>
+      </c>
+      <c r="AX27" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY27" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ27" s="7">
+        <v>80</v>
+      </c>
+      <c r="BA27" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AV28" s="15"/>
+      <c r="AW28" s="7">
+        <v>26</v>
+      </c>
+      <c r="AX28" s="7">
+        <v>2</v>
+      </c>
+      <c r="AY28" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ28" s="7">
+        <v>88</v>
+      </c>
+      <c r="BA28" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AV29" s="15"/>
+      <c r="AW29" s="7">
+        <v>27</v>
+      </c>
+      <c r="AX29" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY29" s="7">
+        <v>2</v>
+      </c>
+      <c r="AZ29" s="7">
+        <v>87</v>
+      </c>
+      <c r="BA29" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AV30" s="15"/>
+      <c r="AW30" s="7">
+        <v>28</v>
+      </c>
+      <c r="AX30" s="7">
+        <v>2</v>
+      </c>
+      <c r="AY30" s="7">
+        <v>2</v>
+      </c>
+      <c r="AZ30" s="7">
+        <v>84</v>
+      </c>
+      <c r="BA30" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AV31" s="15"/>
+      <c r="AW31" s="7">
+        <v>29</v>
+      </c>
+      <c r="AX31" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY31" s="7">
+        <v>3</v>
+      </c>
+      <c r="AZ31" s="7">
+        <v>89</v>
+      </c>
+      <c r="BA31" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AV32" s="15"/>
+      <c r="AW32" s="7">
+        <v>30</v>
+      </c>
+      <c r="AX32" s="7">
+        <v>2</v>
+      </c>
+      <c r="AY32" s="7">
+        <v>3</v>
+      </c>
+      <c r="AZ32" s="7">
+        <v>78</v>
+      </c>
+      <c r="BA32" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AV33" s="15"/>
+      <c r="AW33" s="7">
+        <v>31</v>
+      </c>
+      <c r="AX33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ33" s="7">
+        <v>75</v>
+      </c>
+      <c r="BA33" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="AV34" s="15"/>
+      <c r="AW34" s="7">
+        <v>32</v>
+      </c>
+      <c r="AX34" s="7">
+        <v>2</v>
+      </c>
+      <c r="AY34" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ34" s="7">
+        <v>71</v>
+      </c>
+      <c r="BA34" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="AV35" s="15"/>
+      <c r="AW35" s="7">
+        <v>33</v>
+      </c>
+      <c r="AX35" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY35" s="7">
+        <v>2</v>
+      </c>
+      <c r="AZ35" s="7">
+        <v>87</v>
+      </c>
+      <c r="BA35" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="AV36" s="15"/>
+      <c r="AW36" s="7">
+        <v>34</v>
+      </c>
+      <c r="AX36" s="7">
+        <v>2</v>
+      </c>
+      <c r="AY36" s="7">
+        <v>2</v>
+      </c>
+      <c r="AZ36" s="7">
+        <v>78</v>
+      </c>
+      <c r="BA36" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="AV37" s="15"/>
+      <c r="AW37" s="7">
+        <v>35</v>
+      </c>
+      <c r="AX37" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY37" s="7">
+        <v>3</v>
+      </c>
+      <c r="AZ37" s="7">
+        <v>84</v>
+      </c>
+      <c r="BA37" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="AV38" s="15"/>
+      <c r="AW38" s="7">
+        <v>36</v>
+      </c>
+      <c r="AX38" s="7">
+        <v>2</v>
+      </c>
+      <c r="AY38" s="7">
+        <v>3</v>
+      </c>
+      <c r="AZ38" s="7">
+        <v>76</v>
+      </c>
+      <c r="BA38" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="18:53" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AV39" s="19"/>
+      <c r="AW39" s="20"/>
+      <c r="AX39" s="20"/>
+      <c r="AY39" s="20"/>
+      <c r="AZ39" s="20"/>
+      <c r="BA39" s="20"/>
+    </row>
+    <row r="40" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="AV40" s="15"/>
+      <c r="AW40" s="5">
+        <v>37</v>
+      </c>
+      <c r="AX40" s="5"/>
+      <c r="AY40" s="5"/>
+      <c r="AZ40" s="5">
+        <v>82</v>
+      </c>
+      <c r="BA40" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="AV41" s="15"/>
+      <c r="AW41" s="5">
+        <v>38</v>
+      </c>
+      <c r="AX41" s="5"/>
+      <c r="AY41" s="5"/>
+      <c r="AZ41" s="5">
+        <v>89</v>
+      </c>
+      <c r="BA41" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="AV42" s="15"/>
+      <c r="AW42" s="5">
+        <v>39</v>
+      </c>
+      <c r="AX42" s="5"/>
+      <c r="AY42" s="5"/>
+      <c r="AZ42" s="5">
+        <v>85</v>
+      </c>
+      <c r="BA42" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="AV43" s="15"/>
+      <c r="AW43" s="5">
+        <v>40</v>
+      </c>
+      <c r="AX43" s="5"/>
+      <c r="AY43" s="5"/>
+      <c r="AZ43" s="5">
+        <v>80</v>
+      </c>
+      <c r="BA43" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="AV44" s="15"/>
+      <c r="AW44" s="5">
+        <v>41</v>
+      </c>
+      <c r="AX44" s="5"/>
+      <c r="AY44" s="5"/>
+      <c r="AZ44" s="5">
+        <v>85</v>
+      </c>
+      <c r="BA44" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="AV45" s="15"/>
+      <c r="AW45" s="5">
+        <v>42</v>
+      </c>
+      <c r="AX45" s="5"/>
+      <c r="AY45" s="5"/>
+      <c r="AZ45" s="5">
+        <v>92</v>
+      </c>
+      <c r="BA45" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="AV46" s="15"/>
+      <c r="AW46" s="5">
+        <v>43</v>
+      </c>
+      <c r="AX46" s="5"/>
+      <c r="AY46" s="5"/>
+      <c r="AZ46" s="5">
+        <v>70</v>
+      </c>
+      <c r="BA46" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="AV47" s="15"/>
+      <c r="AW47" s="5">
+        <v>44</v>
+      </c>
+      <c r="AX47" s="5"/>
+      <c r="AY47" s="5"/>
+      <c r="AZ47" s="5">
+        <v>91</v>
+      </c>
+      <c r="BA47" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="18:53" x14ac:dyDescent="0.25">
+      <c r="AV48" s="15"/>
+      <c r="AW48" s="5">
+        <v>45</v>
+      </c>
+      <c r="AX48" s="5"/>
+      <c r="AY48" s="5"/>
+      <c r="AZ48" s="5">
+        <v>87</v>
+      </c>
+      <c r="BA48" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV49" s="15"/>
+      <c r="AW49" s="5">
+        <v>46</v>
+      </c>
+      <c r="AX49" s="5"/>
+      <c r="AY49" s="5"/>
+      <c r="AZ49" s="5">
+        <v>87</v>
+      </c>
+      <c r="BA49" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV50" s="15"/>
+      <c r="AW50" s="5">
+        <v>47</v>
+      </c>
+      <c r="AX50" s="5"/>
+      <c r="AY50" s="5"/>
+      <c r="AZ50" s="5">
+        <v>76</v>
+      </c>
+      <c r="BA50" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV51" s="15"/>
+      <c r="AW51" s="5">
+        <v>48</v>
+      </c>
+      <c r="AX51" s="5"/>
+      <c r="AY51" s="5"/>
+      <c r="AZ51" s="5">
+        <v>73</v>
+      </c>
+      <c r="BA51" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV52" s="15"/>
+      <c r="AW52" s="5">
+        <v>49</v>
+      </c>
+      <c r="AX52" s="5"/>
+      <c r="AY52" s="5"/>
+      <c r="AZ52" s="5">
+        <v>93</v>
+      </c>
+      <c r="BA52" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV53" s="15"/>
+      <c r="AW53" s="5">
+        <v>50</v>
+      </c>
+      <c r="AX53" s="5"/>
+      <c r="AY53" s="5"/>
+      <c r="AZ53" s="5">
+        <v>75</v>
+      </c>
+      <c r="BA53" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV54" s="15"/>
+      <c r="AW54" s="5">
+        <v>51</v>
+      </c>
+      <c r="AX54" s="5"/>
+      <c r="AY54" s="5"/>
+      <c r="AZ54" s="5">
+        <v>90</v>
+      </c>
+      <c r="BA54" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV55" s="15"/>
+      <c r="AW55" s="5">
+        <v>52</v>
+      </c>
+      <c r="AX55" s="5"/>
+      <c r="AY55" s="5"/>
+      <c r="AZ55" s="5">
+        <v>75</v>
+      </c>
+      <c r="BA55" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV56" s="15"/>
+      <c r="AW56" s="5">
+        <v>53</v>
+      </c>
+      <c r="AX56" s="5"/>
+      <c r="AY56" s="5"/>
+      <c r="AZ56" s="5">
+        <v>79</v>
+      </c>
+      <c r="BA56" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV57" s="15"/>
+      <c r="AW57" s="5">
+        <v>54</v>
+      </c>
+      <c r="AX57" s="5"/>
+      <c r="AY57" s="5"/>
+      <c r="AZ57" s="5">
+        <v>94</v>
+      </c>
+      <c r="BA57" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV58" s="15"/>
+      <c r="AW58" s="5">
+        <v>55</v>
+      </c>
+      <c r="AX58" s="5"/>
+      <c r="AY58" s="5"/>
+      <c r="AZ58" s="5">
+        <v>80</v>
+      </c>
+      <c r="BA58" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV59" s="15"/>
+      <c r="AW59" s="5">
+        <v>56</v>
+      </c>
+      <c r="AX59" s="5"/>
+      <c r="AY59" s="5"/>
+      <c r="AZ59" s="5">
+        <v>88</v>
+      </c>
+      <c r="BA59" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV60" s="15"/>
+      <c r="AW60" s="5">
+        <v>57</v>
+      </c>
+      <c r="AX60" s="5"/>
+      <c r="AY60" s="5"/>
+      <c r="AZ60" s="5">
+        <v>87</v>
+      </c>
+      <c r="BA60" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV61" s="15"/>
+      <c r="AW61" s="5">
+        <v>58</v>
+      </c>
+      <c r="AX61" s="5"/>
+      <c r="AY61" s="5"/>
+      <c r="AZ61" s="5">
+        <v>84</v>
+      </c>
+      <c r="BA61" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV62" s="15"/>
+      <c r="AW62" s="5">
+        <v>59</v>
+      </c>
+      <c r="AX62" s="5"/>
+      <c r="AY62" s="5"/>
+      <c r="AZ62" s="5">
+        <v>89</v>
+      </c>
+      <c r="BA62" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV63" s="15"/>
+      <c r="AW63" s="5">
+        <v>60</v>
+      </c>
+      <c r="AX63" s="5"/>
+      <c r="AY63" s="5"/>
+      <c r="AZ63" s="5">
+        <v>90</v>
+      </c>
+      <c r="BA63" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV64" s="15"/>
+      <c r="AW64" s="5">
+        <v>61</v>
+      </c>
+      <c r="AX64" s="5"/>
+      <c r="AY64" s="5"/>
+      <c r="AZ64" s="5">
+        <v>75</v>
+      </c>
+      <c r="BA64" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV65" s="15"/>
+      <c r="AW65" s="5">
+        <v>62</v>
+      </c>
+      <c r="AX65" s="5"/>
+      <c r="AY65" s="5"/>
+      <c r="AZ65" s="5">
+        <v>71</v>
+      </c>
+      <c r="BA65" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV66" s="15"/>
+      <c r="AW66" s="5">
+        <v>63</v>
+      </c>
+      <c r="AX66" s="5"/>
+      <c r="AY66" s="5"/>
+      <c r="AZ66" s="5">
+        <v>87</v>
+      </c>
+      <c r="BA66" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV67" s="15"/>
+      <c r="AW67" s="5">
+        <v>64</v>
+      </c>
+      <c r="AX67" s="5"/>
+      <c r="AY67" s="5"/>
+      <c r="AZ67" s="5">
+        <v>78</v>
+      </c>
+      <c r="BA67" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV68" s="15"/>
+      <c r="AW68" s="5">
+        <v>65</v>
+      </c>
+      <c r="AX68" s="5"/>
+      <c r="AY68" s="5"/>
+      <c r="AZ68" s="5">
+        <v>79</v>
+      </c>
+      <c r="BA68" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV69" s="15"/>
+      <c r="AW69" s="5">
+        <v>66</v>
+      </c>
+      <c r="AX69" s="5"/>
+      <c r="AY69" s="5"/>
+      <c r="AZ69" s="5">
+        <v>76</v>
+      </c>
+      <c r="BA69" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV70" s="15"/>
+      <c r="AW70" s="5">
+        <v>67</v>
+      </c>
+      <c r="AX70" s="5"/>
+      <c r="AY70" s="5"/>
+      <c r="AZ70" s="5">
+        <v>82</v>
+      </c>
+      <c r="BA70" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV71" s="15"/>
+      <c r="AW71" s="5">
+        <v>68</v>
+      </c>
+      <c r="AX71" s="5"/>
+      <c r="AY71" s="5"/>
+      <c r="AZ71" s="5">
+        <v>77</v>
+      </c>
+      <c r="BA71" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV72" s="15"/>
+      <c r="AW72" s="5">
+        <v>69</v>
+      </c>
+      <c r="AX72" s="5"/>
+      <c r="AY72" s="5"/>
+      <c r="AZ72" s="5">
+        <v>85</v>
+      </c>
+      <c r="BA72" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV73" s="15"/>
+      <c r="AW73" s="5">
+        <v>70</v>
+      </c>
+      <c r="AX73" s="5"/>
+      <c r="AY73" s="5"/>
+      <c r="AZ73" s="5">
+        <v>80</v>
+      </c>
+      <c r="BA73" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV74" s="15"/>
+      <c r="AW74" s="5">
+        <v>71</v>
+      </c>
+      <c r="AX74" s="5"/>
+      <c r="AY74" s="5"/>
+      <c r="AZ74" s="5">
+        <v>85</v>
+      </c>
+      <c r="BA74" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV75" s="15"/>
+      <c r="AW75" s="5">
+        <v>72</v>
+      </c>
+      <c r="AX75" s="5"/>
+      <c r="AY75" s="5"/>
+      <c r="AZ75" s="5">
+        <v>92</v>
+      </c>
+      <c r="BA75" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV76" s="15"/>
+      <c r="AW76" s="5">
+        <v>73</v>
+      </c>
+      <c r="AX76" s="5"/>
+      <c r="AY76" s="5"/>
+      <c r="AZ76" s="5">
+        <v>70</v>
+      </c>
+      <c r="BA76" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV77" s="15"/>
+      <c r="AW77" s="5">
+        <v>74</v>
+      </c>
+      <c r="AX77" s="5"/>
+      <c r="AY77" s="5"/>
+      <c r="AZ77" s="5">
+        <v>91</v>
+      </c>
+      <c r="BA77" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV78" s="15"/>
+      <c r="AW78" s="5">
+        <v>75</v>
+      </c>
+      <c r="AX78" s="5"/>
+      <c r="AY78" s="5"/>
+      <c r="AZ78" s="5">
+        <v>87</v>
+      </c>
+      <c r="BA78" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV79" s="15"/>
+      <c r="AW79" s="5">
+        <v>76</v>
+      </c>
+      <c r="AX79" s="5"/>
+      <c r="AY79" s="5"/>
+      <c r="AZ79" s="5">
+        <v>87</v>
+      </c>
+      <c r="BA79" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV80" s="15"/>
+      <c r="AW80" s="5">
+        <v>77</v>
+      </c>
+      <c r="AX80" s="5"/>
+      <c r="AY80" s="5"/>
+      <c r="AZ80" s="5">
+        <v>76</v>
+      </c>
+      <c r="BA80" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV81" s="15"/>
+      <c r="AW81" s="5">
+        <v>78</v>
+      </c>
+      <c r="AX81" s="5"/>
+      <c r="AY81" s="5"/>
+      <c r="AZ81" s="5">
+        <v>73</v>
+      </c>
+      <c r="BA81" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV82" s="15"/>
+      <c r="AW82" s="5">
+        <v>79</v>
+      </c>
+      <c r="AX82" s="5"/>
+      <c r="AY82" s="5"/>
+      <c r="AZ82" s="5">
+        <v>93</v>
+      </c>
+      <c r="BA82" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV83" s="15"/>
+      <c r="AW83" s="5">
+        <v>80</v>
+      </c>
+      <c r="AX83" s="5"/>
+      <c r="AY83" s="5"/>
+      <c r="AZ83" s="5">
+        <v>75</v>
+      </c>
+      <c r="BA83" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV84" s="15"/>
+      <c r="AW84" s="5">
+        <v>81</v>
+      </c>
+      <c r="AX84" s="5"/>
+      <c r="AY84" s="5"/>
+      <c r="AZ84" s="5">
+        <v>90</v>
+      </c>
+      <c r="BA84" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV85" s="15"/>
+      <c r="AW85" s="5">
+        <v>82</v>
+      </c>
+      <c r="AX85" s="5"/>
+      <c r="AY85" s="5"/>
+      <c r="AZ85" s="5">
+        <v>75</v>
+      </c>
+      <c r="BA85" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV86" s="15"/>
+      <c r="AW86" s="5">
+        <v>83</v>
+      </c>
+      <c r="AX86" s="5"/>
+      <c r="AY86" s="5"/>
+      <c r="AZ86" s="5">
+        <v>79</v>
+      </c>
+      <c r="BA86" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV87" s="15"/>
+      <c r="AW87" s="5">
+        <v>84</v>
+      </c>
+      <c r="AX87" s="5"/>
+      <c r="AY87" s="5"/>
+      <c r="AZ87" s="5">
+        <v>94</v>
+      </c>
+      <c r="BA87" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV88" s="15"/>
+      <c r="AW88" s="5">
+        <v>85</v>
+      </c>
+      <c r="AX88" s="5"/>
+      <c r="AY88" s="5"/>
+      <c r="AZ88" s="5">
+        <v>80</v>
+      </c>
+      <c r="BA88" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV89" s="15"/>
+      <c r="AW89" s="5">
+        <v>86</v>
+      </c>
+      <c r="AX89" s="5"/>
+      <c r="AY89" s="5"/>
+      <c r="AZ89" s="5">
+        <v>88</v>
+      </c>
+      <c r="BA89" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV90" s="15"/>
+      <c r="AW90" s="5">
+        <v>87</v>
+      </c>
+      <c r="AX90" s="5"/>
+      <c r="AY90" s="5"/>
+      <c r="AZ90" s="5">
+        <v>87</v>
+      </c>
+      <c r="BA90" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV91" s="15"/>
+      <c r="AW91" s="5">
+        <v>88</v>
+      </c>
+      <c r="AX91" s="5"/>
+      <c r="AY91" s="5"/>
+      <c r="AZ91" s="5">
+        <v>84</v>
+      </c>
+      <c r="BA91" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV92" s="15"/>
+      <c r="AW92" s="5">
+        <v>89</v>
+      </c>
+      <c r="AX92" s="5"/>
+      <c r="AY92" s="5"/>
+      <c r="AZ92" s="5">
+        <v>89</v>
+      </c>
+      <c r="BA92" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV93" s="15"/>
+      <c r="AW93" s="5">
+        <v>90</v>
+      </c>
+      <c r="AX93" s="5"/>
+      <c r="AY93" s="5"/>
+      <c r="AZ93" s="5">
+        <v>78</v>
+      </c>
+      <c r="BA93" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV94" s="15"/>
+      <c r="AW94" s="5">
+        <v>91</v>
+      </c>
+      <c r="AX94" s="5"/>
+      <c r="AY94" s="5"/>
+      <c r="AZ94" s="5">
+        <v>75</v>
+      </c>
+      <c r="BA94" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV95" s="15"/>
+      <c r="AW95" s="5">
+        <v>92</v>
+      </c>
+      <c r="AX95" s="5"/>
+      <c r="AY95" s="5"/>
+      <c r="AZ95" s="5">
+        <v>71</v>
+      </c>
+      <c r="BA95" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV96" s="15"/>
+      <c r="AW96" s="5">
+        <v>93</v>
+      </c>
+      <c r="AX96" s="5"/>
+      <c r="AY96" s="5"/>
+      <c r="AZ96" s="5">
+        <v>87</v>
+      </c>
+      <c r="BA96" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV97" s="15"/>
+      <c r="AW97" s="5">
+        <v>94</v>
+      </c>
+      <c r="AX97" s="5"/>
+      <c r="AY97" s="5"/>
+      <c r="AZ97" s="5">
+        <v>85</v>
+      </c>
+      <c r="BA97" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV98" s="15"/>
+      <c r="AW98" s="5">
+        <v>95</v>
+      </c>
+      <c r="AX98" s="5"/>
+      <c r="AY98" s="5"/>
+      <c r="AZ98" s="5">
+        <v>79</v>
+      </c>
+      <c r="BA98" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV99" s="15"/>
+      <c r="AW99" s="5">
+        <v>96</v>
+      </c>
+      <c r="AX99" s="5"/>
+      <c r="AY99" s="5"/>
+      <c r="AZ99" s="5">
+        <v>76</v>
+      </c>
+      <c r="BA99" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV100" s="15"/>
+      <c r="AW100" s="5">
+        <v>97</v>
+      </c>
+      <c r="AX100" s="5"/>
+      <c r="AY100" s="5"/>
+      <c r="AZ100" s="5">
+        <v>82</v>
+      </c>
+      <c r="BA100" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV101" s="15"/>
+      <c r="AW101" s="5">
+        <v>98</v>
+      </c>
+      <c r="AX101" s="5"/>
+      <c r="AY101" s="5"/>
+      <c r="AZ101" s="5">
+        <v>89</v>
+      </c>
+      <c r="BA101" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV102" s="15"/>
+      <c r="AW102" s="5">
+        <v>99</v>
+      </c>
+      <c r="AX102" s="5"/>
+      <c r="AY102" s="5"/>
+      <c r="AZ102" s="5">
+        <v>85</v>
+      </c>
+      <c r="BA102" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV103" s="15"/>
+      <c r="AW103" s="5">
+        <v>100</v>
+      </c>
+      <c r="AX103" s="5"/>
+      <c r="AY103" s="5"/>
+      <c r="AZ103" s="5">
+        <v>80</v>
+      </c>
+      <c r="BA103" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV104" s="15"/>
+      <c r="AW104" s="5">
+        <v>101</v>
+      </c>
+      <c r="AX104" s="5"/>
+      <c r="AY104" s="5"/>
+      <c r="AZ104" s="5">
+        <v>85</v>
+      </c>
+      <c r="BA104" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="105" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV105" s="15"/>
+      <c r="AW105" s="5">
+        <v>102</v>
+      </c>
+      <c r="AX105" s="5"/>
+      <c r="AY105" s="5"/>
+      <c r="AZ105" s="5">
+        <v>92</v>
+      </c>
+      <c r="BA105" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="106" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV106" s="15"/>
+      <c r="AW106" s="5">
+        <v>103</v>
+      </c>
+      <c r="AX106" s="5"/>
+      <c r="AY106" s="5"/>
+      <c r="AZ106" s="5">
+        <v>70</v>
+      </c>
+      <c r="BA106" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV107" s="15"/>
+      <c r="AW107" s="5">
+        <v>104</v>
+      </c>
+      <c r="AX107" s="5"/>
+      <c r="AY107" s="5"/>
+      <c r="AZ107" s="5">
+        <v>91</v>
+      </c>
+      <c r="BA107" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV108" s="15"/>
+      <c r="AW108" s="5">
+        <v>105</v>
+      </c>
+      <c r="AX108" s="5"/>
+      <c r="AY108" s="5"/>
+      <c r="AZ108" s="5">
+        <v>87</v>
+      </c>
+      <c r="BA108" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV109" s="15"/>
+      <c r="AW109" s="5">
+        <v>106</v>
+      </c>
+      <c r="AX109" s="5"/>
+      <c r="AY109" s="5"/>
+      <c r="AZ109" s="5">
+        <v>87</v>
+      </c>
+      <c r="BA109" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="110" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV110" s="15"/>
+      <c r="AW110" s="5">
+        <v>107</v>
+      </c>
+      <c r="AX110" s="5"/>
+      <c r="AY110" s="5"/>
+      <c r="AZ110" s="5">
+        <v>76</v>
+      </c>
+      <c r="BA110" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV111" s="15"/>
+      <c r="AW111" s="5">
+        <v>108</v>
+      </c>
+      <c r="AX111" s="5"/>
+      <c r="AY111" s="5"/>
+      <c r="AZ111" s="5">
+        <v>73</v>
+      </c>
+      <c r="BA111" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="112" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV112" s="15"/>
+      <c r="AW112" s="5">
+        <v>109</v>
+      </c>
+      <c r="AX112" s="5"/>
+      <c r="AY112" s="5"/>
+      <c r="AZ112" s="5">
+        <v>93</v>
+      </c>
+      <c r="BA112" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV113" s="15"/>
+      <c r="AW113" s="5">
+        <v>110</v>
+      </c>
+      <c r="AX113" s="5"/>
+      <c r="AY113" s="5"/>
+      <c r="AZ113" s="5">
+        <v>75</v>
+      </c>
+      <c r="BA113" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV114" s="15"/>
+      <c r="AW114" s="5">
+        <v>111</v>
+      </c>
+      <c r="AX114" s="5"/>
+      <c r="AY114" s="5"/>
+      <c r="AZ114" s="5">
+        <v>77</v>
+      </c>
+      <c r="BA114" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="115" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV115" s="15"/>
+      <c r="AW115" s="5">
+        <v>112</v>
+      </c>
+      <c r="AX115" s="5"/>
+      <c r="AY115" s="5"/>
+      <c r="AZ115" s="5">
+        <v>75</v>
+      </c>
+      <c r="BA115" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="116" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV116" s="15"/>
+      <c r="AW116" s="5">
+        <v>113</v>
+      </c>
+      <c r="AX116" s="5"/>
+      <c r="AY116" s="5"/>
+      <c r="AZ116" s="5">
+        <v>79</v>
+      </c>
+      <c r="BA116" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="117" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV117" s="15"/>
+      <c r="AW117" s="5">
+        <v>114</v>
+      </c>
+      <c r="AX117" s="5"/>
+      <c r="AY117" s="5"/>
+      <c r="AZ117" s="5">
+        <v>94</v>
+      </c>
+      <c r="BA117" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="118" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV118" s="15"/>
+      <c r="AW118" s="5">
+        <v>115</v>
+      </c>
+      <c r="AX118" s="5"/>
+      <c r="AY118" s="5"/>
+      <c r="AZ118" s="5">
+        <v>80</v>
+      </c>
+      <c r="BA118" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="119" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV119" s="15"/>
+      <c r="AW119" s="5">
+        <v>116</v>
+      </c>
+      <c r="AX119" s="5"/>
+      <c r="AY119" s="5"/>
+      <c r="AZ119" s="5">
+        <v>88</v>
+      </c>
+      <c r="BA119" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="120" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV120" s="15"/>
+      <c r="AW120" s="5">
+        <v>117</v>
+      </c>
+      <c r="AX120" s="5"/>
+      <c r="AY120" s="5"/>
+      <c r="AZ120" s="5">
+        <v>87</v>
+      </c>
+      <c r="BA120" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="121" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV121" s="15"/>
+      <c r="AW121" s="5">
+        <v>118</v>
+      </c>
+      <c r="AX121" s="5"/>
+      <c r="AY121" s="5"/>
+      <c r="AZ121" s="5">
+        <v>84</v>
+      </c>
+      <c r="BA121" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="122" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV122" s="15"/>
+      <c r="AW122" s="5">
+        <v>119</v>
+      </c>
+      <c r="AX122" s="5"/>
+      <c r="AY122" s="5"/>
+      <c r="AZ122" s="5">
+        <v>89</v>
+      </c>
+      <c r="BA122" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="123" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV123" s="15"/>
+      <c r="AW123" s="5">
+        <v>120</v>
+      </c>
+      <c r="AX123" s="5"/>
+      <c r="AY123" s="5"/>
+      <c r="AZ123" s="5">
+        <v>78</v>
+      </c>
+      <c r="BA123" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="124" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV124" s="15"/>
+      <c r="AW124" s="5">
+        <v>121</v>
+      </c>
+      <c r="AX124" s="5"/>
+      <c r="AY124" s="5"/>
+      <c r="AZ124" s="5">
+        <v>75</v>
+      </c>
+      <c r="BA124" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="125" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV125" s="15"/>
+      <c r="AW125" s="5">
+        <v>122</v>
+      </c>
+      <c r="AX125" s="5"/>
+      <c r="AY125" s="5"/>
+      <c r="AZ125" s="5">
+        <v>71</v>
+      </c>
+      <c r="BA125" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="126" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV126" s="15"/>
+      <c r="AW126" s="5">
+        <v>123</v>
+      </c>
+      <c r="AX126" s="5"/>
+      <c r="AY126" s="5"/>
+      <c r="AZ126" s="5">
+        <v>87</v>
+      </c>
+      <c r="BA126" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="127" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV127" s="15"/>
+      <c r="AW127" s="5">
+        <v>124</v>
+      </c>
+      <c r="AX127" s="5"/>
+      <c r="AY127" s="5"/>
+      <c r="AZ127" s="5">
+        <v>80</v>
+      </c>
+      <c r="BA127" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="128" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV128" s="15"/>
+      <c r="AW128" s="5">
+        <v>125</v>
+      </c>
+      <c r="AX128" s="5"/>
+      <c r="AY128" s="5"/>
+      <c r="AZ128" s="5">
+        <v>79</v>
+      </c>
+      <c r="BA128" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="129" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV129" s="15"/>
+      <c r="AW129" s="5">
+        <v>126</v>
+      </c>
+      <c r="AX129" s="5"/>
+      <c r="AY129" s="5"/>
+      <c r="AZ129" s="5">
+        <v>76</v>
+      </c>
+      <c r="BA129" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="130" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV130" s="15"/>
+      <c r="AW130" s="5">
+        <v>127</v>
+      </c>
+      <c r="AX130" s="5"/>
+      <c r="AY130" s="5"/>
+      <c r="AZ130" s="5">
+        <v>82</v>
+      </c>
+      <c r="BA130" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="131" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV131" s="15"/>
+      <c r="AW131" s="5">
+        <v>128</v>
+      </c>
+      <c r="AX131" s="5"/>
+      <c r="AY131" s="5"/>
+      <c r="AZ131" s="5">
+        <v>89</v>
+      </c>
+      <c r="BA131" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="132" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV132" s="15"/>
+      <c r="AW132" s="5">
+        <v>129</v>
+      </c>
+      <c r="AX132" s="5"/>
+      <c r="AY132" s="5"/>
+      <c r="AZ132" s="5">
+        <v>85</v>
+      </c>
+      <c r="BA132" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="133" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV133" s="15"/>
+      <c r="AW133" s="5">
+        <v>130</v>
+      </c>
+      <c r="AX133" s="5"/>
+      <c r="AY133" s="5"/>
+      <c r="AZ133" s="5">
+        <v>80</v>
+      </c>
+      <c r="BA133" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="134" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV134" s="15"/>
+      <c r="AW134" s="5">
+        <v>131</v>
+      </c>
+      <c r="AX134" s="5"/>
+      <c r="AY134" s="5"/>
+      <c r="AZ134" s="5">
+        <v>85</v>
+      </c>
+      <c r="BA134" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="135" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV135" s="15"/>
+      <c r="AW135" s="5">
+        <v>132</v>
+      </c>
+      <c r="AX135" s="5"/>
+      <c r="AY135" s="5"/>
+      <c r="AZ135" s="5">
+        <v>92</v>
+      </c>
+      <c r="BA135" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="136" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV136" s="15"/>
+      <c r="AW136" s="5">
+        <v>133</v>
+      </c>
+      <c r="AX136" s="5"/>
+      <c r="AY136" s="5"/>
+      <c r="AZ136" s="5">
+        <v>70</v>
+      </c>
+      <c r="BA136" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="137" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV137" s="15"/>
+      <c r="AW137" s="5">
+        <v>134</v>
+      </c>
+      <c r="AX137" s="5"/>
+      <c r="AY137" s="5"/>
+      <c r="AZ137" s="5">
+        <v>91</v>
+      </c>
+      <c r="BA137" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="138" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV138" s="15"/>
+      <c r="AW138" s="5">
+        <v>135</v>
+      </c>
+      <c r="AX138" s="5"/>
+      <c r="AY138" s="5"/>
+      <c r="AZ138" s="5">
+        <v>87</v>
+      </c>
+      <c r="BA138" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="139" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV139" s="15"/>
+      <c r="AW139" s="5">
+        <v>136</v>
+      </c>
+      <c r="AX139" s="5"/>
+      <c r="AY139" s="5"/>
+      <c r="AZ139" s="5">
+        <v>87</v>
+      </c>
+      <c r="BA139" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="140" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV140" s="15"/>
+      <c r="AW140" s="5">
+        <v>137</v>
+      </c>
+      <c r="AX140" s="5"/>
+      <c r="AY140" s="5"/>
+      <c r="AZ140" s="5">
+        <v>76</v>
+      </c>
+      <c r="BA140" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="141" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV141" s="15"/>
+      <c r="AW141" s="5">
+        <v>138</v>
+      </c>
+      <c r="AX141" s="5"/>
+      <c r="AY141" s="5"/>
+      <c r="AZ141" s="5">
+        <v>73</v>
+      </c>
+      <c r="BA141" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="142" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV142" s="15"/>
+      <c r="AW142" s="5">
+        <v>139</v>
+      </c>
+      <c r="AX142" s="5"/>
+      <c r="AY142" s="5"/>
+      <c r="AZ142" s="5">
+        <v>93</v>
+      </c>
+      <c r="BA142" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="143" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV143" s="15"/>
+      <c r="AW143" s="5">
+        <v>140</v>
+      </c>
+      <c r="AX143" s="5"/>
+      <c r="AY143" s="5"/>
+      <c r="AZ143" s="5">
+        <v>75</v>
+      </c>
+      <c r="BA143" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="144" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV144" s="15"/>
+      <c r="AW144" s="5">
+        <v>141</v>
+      </c>
+      <c r="AX144" s="5"/>
+      <c r="AY144" s="5"/>
+      <c r="AZ144" s="5">
+        <v>90</v>
+      </c>
+      <c r="BA144" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="145" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV145" s="15"/>
+      <c r="AW145" s="5">
+        <v>142</v>
+      </c>
+      <c r="AX145" s="5"/>
+      <c r="AY145" s="5"/>
+      <c r="AZ145" s="5">
+        <v>75</v>
+      </c>
+      <c r="BA145" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="146" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV146" s="15"/>
+      <c r="AW146" s="5">
+        <v>143</v>
+      </c>
+      <c r="AX146" s="5"/>
+      <c r="AY146" s="5"/>
+      <c r="AZ146" s="5">
+        <v>79</v>
+      </c>
+      <c r="BA146" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="147" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV147" s="15"/>
+      <c r="AW147" s="5">
+        <v>144</v>
+      </c>
+      <c r="AX147" s="5"/>
+      <c r="AY147" s="5"/>
+      <c r="AZ147" s="5">
+        <v>94</v>
+      </c>
+      <c r="BA147" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="148" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV148" s="15"/>
+      <c r="AW148" s="5">
+        <v>145</v>
+      </c>
+      <c r="AX148" s="5"/>
+      <c r="AY148" s="5"/>
+      <c r="AZ148" s="5">
+        <v>80</v>
+      </c>
+      <c r="BA148" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="149" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV149" s="15"/>
+      <c r="AW149" s="5">
+        <v>146</v>
+      </c>
+      <c r="AX149" s="5"/>
+      <c r="AY149" s="5"/>
+      <c r="AZ149" s="5">
+        <v>88</v>
+      </c>
+      <c r="BA149" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="150" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV150" s="15"/>
+      <c r="AW150" s="5">
+        <v>147</v>
+      </c>
+      <c r="AX150" s="5"/>
+      <c r="AY150" s="5"/>
+      <c r="AZ150" s="5">
+        <v>87</v>
+      </c>
+      <c r="BA150" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="151" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV151" s="15"/>
+      <c r="AW151" s="5">
+        <v>148</v>
+      </c>
+      <c r="AX151" s="5"/>
+      <c r="AY151" s="5"/>
+      <c r="AZ151" s="5">
+        <v>84</v>
+      </c>
+      <c r="BA151" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="152" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV152" s="15"/>
+      <c r="AW152" s="5">
+        <v>149</v>
+      </c>
+      <c r="AX152" s="5"/>
+      <c r="AY152" s="5"/>
+      <c r="AZ152" s="5">
+        <v>89</v>
+      </c>
+      <c r="BA152" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="153" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV153" s="15"/>
+      <c r="AW153" s="5">
+        <v>150</v>
+      </c>
+      <c r="AX153" s="5"/>
+      <c r="AY153" s="5"/>
+      <c r="AZ153" s="5">
+        <v>78</v>
+      </c>
+      <c r="BA153" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="154" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV154" s="15"/>
+      <c r="AW154" s="5">
+        <v>151</v>
+      </c>
+      <c r="AX154" s="5"/>
+      <c r="AY154" s="5"/>
+      <c r="AZ154" s="5">
+        <v>75</v>
+      </c>
+      <c r="BA154" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="155" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV155" s="15"/>
+      <c r="AW155" s="5">
+        <v>152</v>
+      </c>
+      <c r="AX155" s="5"/>
+      <c r="AY155" s="5"/>
+      <c r="AZ155" s="5">
+        <v>71</v>
+      </c>
+      <c r="BA155" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="156" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV156" s="15"/>
+      <c r="AW156" s="5">
+        <v>153</v>
+      </c>
+      <c r="AX156" s="5"/>
+      <c r="AY156" s="5"/>
+      <c r="AZ156" s="5">
+        <v>87</v>
+      </c>
+      <c r="BA156" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="157" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV157" s="15"/>
+      <c r="AW157" s="5">
+        <v>154</v>
+      </c>
+      <c r="AX157" s="5"/>
+      <c r="AY157" s="5"/>
+      <c r="AZ157" s="5">
+        <v>78</v>
+      </c>
+      <c r="BA157" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="158" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV158" s="15"/>
+      <c r="AW158" s="5">
+        <v>155</v>
+      </c>
+      <c r="AX158" s="5"/>
+      <c r="AY158" s="5"/>
+      <c r="AZ158" s="5">
+        <v>79</v>
+      </c>
+      <c r="BA158" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="159" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV159" s="15"/>
+      <c r="AW159" s="5">
+        <v>156</v>
+      </c>
+      <c r="AX159" s="5"/>
+      <c r="AY159" s="5"/>
+      <c r="AZ159" s="5">
+        <v>76</v>
+      </c>
+      <c r="BA159" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="160" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV160" s="15"/>
+      <c r="AW160" s="5">
+        <v>157</v>
+      </c>
+      <c r="AX160" s="5"/>
+      <c r="AY160" s="5"/>
+      <c r="AZ160" s="5">
+        <v>82</v>
+      </c>
+      <c r="BA160" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="161" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV161" s="15"/>
+      <c r="AW161" s="5">
+        <v>158</v>
+      </c>
+      <c r="AX161" s="5"/>
+      <c r="AY161" s="5"/>
+      <c r="AZ161" s="5">
+        <v>89</v>
+      </c>
+      <c r="BA161" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="162" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV162" s="15"/>
+      <c r="AW162" s="5">
+        <v>159</v>
+      </c>
+      <c r="AX162" s="5"/>
+      <c r="AY162" s="5"/>
+      <c r="AZ162" s="5">
+        <v>85</v>
+      </c>
+      <c r="BA162" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="163" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV163" s="15"/>
+      <c r="AW163" s="5">
+        <v>160</v>
+      </c>
+      <c r="AX163" s="5"/>
+      <c r="AY163" s="5"/>
+      <c r="AZ163" s="5">
+        <v>80</v>
+      </c>
+      <c r="BA163" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="164" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV164" s="15"/>
+      <c r="AW164" s="5">
+        <v>161</v>
+      </c>
+      <c r="AX164" s="5"/>
+      <c r="AY164" s="5"/>
+      <c r="AZ164" s="5">
+        <v>85</v>
+      </c>
+      <c r="BA164" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="165" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV165" s="15"/>
+      <c r="AW165" s="5">
+        <v>162</v>
+      </c>
+      <c r="AX165" s="5"/>
+      <c r="AY165" s="5"/>
+      <c r="AZ165" s="5">
+        <v>92</v>
+      </c>
+      <c r="BA165" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="166" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV166" s="15"/>
+      <c r="AW166" s="5">
+        <v>163</v>
+      </c>
+      <c r="AX166" s="5"/>
+      <c r="AY166" s="5"/>
+      <c r="AZ166" s="5">
+        <v>70</v>
+      </c>
+      <c r="BA166" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="167" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV167" s="15"/>
+      <c r="AW167" s="5">
+        <v>164</v>
+      </c>
+      <c r="AX167" s="5"/>
+      <c r="AY167" s="5"/>
+      <c r="AZ167" s="5">
+        <v>91</v>
+      </c>
+      <c r="BA167" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="168" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV168" s="15"/>
+      <c r="AW168" s="5">
+        <v>165</v>
+      </c>
+      <c r="AX168" s="5"/>
+      <c r="AY168" s="5"/>
+      <c r="AZ168" s="5">
+        <v>87</v>
+      </c>
+      <c r="BA168" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="169" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV169" s="15"/>
+      <c r="AW169" s="5">
+        <v>166</v>
+      </c>
+      <c r="AX169" s="5"/>
+      <c r="AY169" s="5"/>
+      <c r="AZ169" s="5">
+        <v>87</v>
+      </c>
+      <c r="BA169" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="170" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV170" s="15"/>
+      <c r="AW170" s="5">
+        <v>167</v>
+      </c>
+      <c r="AX170" s="5"/>
+      <c r="AY170" s="5"/>
+      <c r="AZ170" s="5">
+        <v>76</v>
+      </c>
+      <c r="BA170" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="171" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV171" s="15"/>
+      <c r="AW171" s="5">
+        <v>168</v>
+      </c>
+      <c r="AX171" s="5"/>
+      <c r="AY171" s="5"/>
+      <c r="AZ171" s="5">
+        <v>73</v>
+      </c>
+      <c r="BA171" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="172" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV172" s="15"/>
+      <c r="AW172" s="5">
+        <v>169</v>
+      </c>
+      <c r="AX172" s="5"/>
+      <c r="AY172" s="5"/>
+      <c r="AZ172" s="5">
+        <v>93</v>
+      </c>
+      <c r="BA172" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="173" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV173" s="15"/>
+      <c r="AW173" s="5">
+        <v>170</v>
+      </c>
+      <c r="AX173" s="5"/>
+      <c r="AY173" s="5"/>
+      <c r="AZ173" s="5">
+        <v>75</v>
+      </c>
+      <c r="BA173" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="174" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV174" s="15"/>
+      <c r="AW174" s="5">
+        <v>171</v>
+      </c>
+      <c r="AX174" s="5"/>
+      <c r="AY174" s="5"/>
+      <c r="AZ174" s="5">
+        <v>90</v>
+      </c>
+      <c r="BA174" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="175" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV175" s="15"/>
+      <c r="AW175" s="5">
+        <v>172</v>
+      </c>
+      <c r="AX175" s="5"/>
+      <c r="AY175" s="5"/>
+      <c r="AZ175" s="5">
+        <v>75</v>
+      </c>
+      <c r="BA175" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="176" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV176" s="15"/>
+      <c r="AW176" s="5">
+        <v>173</v>
+      </c>
+      <c r="AX176" s="5"/>
+      <c r="AY176" s="5"/>
+      <c r="AZ176" s="5">
+        <v>79</v>
+      </c>
+      <c r="BA176" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="177" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV177" s="15"/>
+      <c r="AW177" s="5">
+        <v>174</v>
+      </c>
+      <c r="AX177" s="5"/>
+      <c r="AY177" s="5"/>
+      <c r="AZ177" s="5">
+        <v>94</v>
+      </c>
+      <c r="BA177" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="178" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV178" s="15"/>
+      <c r="AW178" s="5">
+        <v>175</v>
+      </c>
+      <c r="AX178" s="5"/>
+      <c r="AY178" s="5"/>
+      <c r="AZ178" s="5">
+        <v>80</v>
+      </c>
+      <c r="BA178" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="179" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV179" s="15"/>
+      <c r="AW179" s="5">
+        <v>176</v>
+      </c>
+      <c r="AX179" s="5"/>
+      <c r="AY179" s="5"/>
+      <c r="AZ179" s="5">
+        <v>88</v>
+      </c>
+      <c r="BA179" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="180" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV180" s="15"/>
+      <c r="AW180" s="5">
+        <v>177</v>
+      </c>
+      <c r="AX180" s="5"/>
+      <c r="AY180" s="5"/>
+      <c r="AZ180" s="5">
+        <v>87</v>
+      </c>
+      <c r="BA180" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="181" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV181" s="15"/>
+      <c r="AW181" s="5">
+        <v>178</v>
+      </c>
+      <c r="AX181" s="5"/>
+      <c r="AY181" s="5"/>
+      <c r="AZ181" s="5">
+        <v>84</v>
+      </c>
+      <c r="BA181" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="182" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV182" s="15"/>
+      <c r="AW182" s="5">
+        <v>179</v>
+      </c>
+      <c r="AX182" s="5"/>
+      <c r="AY182" s="5"/>
+      <c r="AZ182" s="5">
+        <v>89</v>
+      </c>
+      <c r="BA182" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="183" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV183" s="15"/>
+      <c r="AW183" s="5">
+        <v>180</v>
+      </c>
+      <c r="AX183" s="5"/>
+      <c r="AY183" s="5"/>
+      <c r="AZ183" s="5">
+        <v>78</v>
+      </c>
+      <c r="BA183" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="184" spans="48:53" x14ac:dyDescent="0.25">
+      <c r="AV184" s="15"/>
+      <c r="AW184" s="5">
+        <v>181</v>
+      </c>
+      <c r="AX184" s="5"/>
+      <c r="AY184" s="5"/>
+      <c r="AZ184" s="5">
+        <v>90</v>
+      </c>
+      <c r="BA184" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="BC1:BG1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -602,7 +4548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -615,297 +4561,297 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
